--- a/04kappa/unauthorized_tagger_dataframe_kappa.xlsx
+++ b/04kappa/unauthorized_tagger_dataframe_kappa.xlsx
@@ -22,112 +22,112 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>kshatkus@purdue.edu</t>
+  </si>
+  <si>
+    <t>wu467@purdue.edu</t>
+  </si>
+  <si>
+    <t>cklauck@purdue.edu</t>
+  </si>
+  <si>
+    <t>atellito@purdue.edu</t>
+  </si>
+  <si>
+    <t>dai77@purdue.edu</t>
+  </si>
+  <si>
+    <t>jmccror@purdue.edu</t>
+  </si>
+  <si>
+    <t>dcherian@purdue.edu</t>
+  </si>
+  <si>
     <t>fische10@purdue.edu</t>
   </si>
   <si>
+    <t>tdeters@purdue.edu</t>
+  </si>
+  <si>
+    <t>john1300@purdue.edu</t>
+  </si>
+  <si>
+    <t>tateh@purdue.edu</t>
+  </si>
+  <si>
+    <t>cwilhigh@purdue.edu</t>
+  </si>
+  <si>
+    <t>heo6@purdue.edu</t>
+  </si>
+  <si>
     <t>afrances@purdue.edu</t>
   </si>
   <si>
-    <t>tateh@purdue.edu</t>
+    <t>zeng60@purdue.edu</t>
+  </si>
+  <si>
+    <t>wu649@purdue.edu</t>
+  </si>
+  <si>
+    <t>bkoehler25@gmail.com</t>
+  </si>
+  <si>
+    <t>gupta362@purdue.edu</t>
+  </si>
+  <si>
+    <t>gong34@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhao393@purdue.edu</t>
   </si>
   <si>
     <t>liu1417@purdue.edu</t>
   </si>
   <si>
+    <t>li470@purdue.edu</t>
+  </si>
+  <si>
+    <t>han288@purdue.edu</t>
+  </si>
+  <si>
     <t>hughe146@purdue.edu</t>
   </si>
   <si>
+    <t>pearson9@purdue.edu</t>
+  </si>
+  <si>
+    <t>ye97@purdue.edu</t>
+  </si>
+  <si>
     <t>shen147@purdue.edu</t>
   </si>
   <si>
-    <t>tdeters@purdue.edu</t>
-  </si>
-  <si>
-    <t>kshatkus@purdue.edu</t>
+    <t>kprzybor@purdue.edu</t>
+  </si>
+  <si>
+    <t>chen1331@purdue.edu</t>
+  </si>
+  <si>
+    <t>zheng191@purdue.edu</t>
+  </si>
+  <si>
+    <t>meng46@purdue.edu</t>
+  </si>
+  <si>
+    <t>agosnell@purdue.edu</t>
+  </si>
+  <si>
+    <t>lin551@purdue.edu</t>
   </si>
   <si>
     <t>zhan1565@purdue.edu</t>
   </si>
   <si>
-    <t>li470@purdue.edu</t>
-  </si>
-  <si>
-    <t>pearson9@purdue.edu</t>
-  </si>
-  <si>
-    <t>wu467@purdue.edu</t>
-  </si>
-  <si>
-    <t>zeng60@purdue.edu</t>
+    <t>bbelcher@purdue.edu</t>
   </si>
   <si>
     <t>zhu488@purdue.edu</t>
-  </si>
-  <si>
-    <t>cwilhigh@purdue.edu</t>
-  </si>
-  <si>
-    <t>han288@purdue.edu</t>
-  </si>
-  <si>
-    <t>heo6@purdue.edu</t>
-  </si>
-  <si>
-    <t>atellito@purdue.edu</t>
-  </si>
-  <si>
-    <t>lin551@purdue.edu</t>
-  </si>
-  <si>
-    <t>meng46@purdue.edu</t>
-  </si>
-  <si>
-    <t>jmccror@purdue.edu</t>
-  </si>
-  <si>
-    <t>gupta362@purdue.edu</t>
-  </si>
-  <si>
-    <t>agosnell@purdue.edu</t>
-  </si>
-  <si>
-    <t>dai77@purdue.edu</t>
-  </si>
-  <si>
-    <t>kprzybor@purdue.edu</t>
-  </si>
-  <si>
-    <t>dcherian@purdue.edu</t>
-  </si>
-  <si>
-    <t>bbelcher@purdue.edu</t>
-  </si>
-  <si>
-    <t>cklauck@purdue.edu</t>
-  </si>
-  <si>
-    <t>ye97@purdue.edu</t>
-  </si>
-  <si>
-    <t>gong34@purdue.edu</t>
-  </si>
-  <si>
-    <t>bkoehler25@gmail.com</t>
-  </si>
-  <si>
-    <t>zheng191@purdue.edu</t>
-  </si>
-  <si>
-    <t>wu649@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhao393@purdue.edu</t>
-  </si>
-  <si>
-    <t>john1300@purdue.edu</t>
-  </si>
-  <si>
-    <t>chen1331@purdue.edu</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.431818181818182</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.608695652173913</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.805970149253731</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.409090909090909</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.805970149253731</v>
+        <v>0.615384615384615</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.440677966101695</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.431818181818182</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.588235294117647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.638888888888889</v>
+        <v>0.450704225352113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.744186046511628</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.608695652173913</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.444444444444445</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.8</v>
+        <v>0.444444444444445</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.598425196850394</v>
+        <v>0.551724137931034</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>0.618181818181818</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -694,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.7</v>
+        <v>0.522388059701492</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.432432432432432</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -716,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.769230769230769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -727,7 +727,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.615384615384615</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -738,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.522388059701492</v>
+        <v>0.638888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -749,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.588235294117647</v>
+        <v>0.598425196850394</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -760,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.6</v>
+        <v>0.409090909090909</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -771,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.511627906976744</v>
+        <v>0.744186046511628</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.440677966101695</v>
+        <v>0.636363636363636</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.588235294117647</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -804,7 +804,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.423076923076923</v>
+        <v>0.511627906976744</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -815,7 +815,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.636363636363636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -826,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.432432432432432</v>
+        <v>0.608695652173913</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -837,7 +837,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.618181818181818</v>
+        <v>0.769230769230769</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -848,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.608695652173913</v>
+        <v>0.588235294117647</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -859,7 +859,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.551724137931034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -870,7 +870,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.588235294117647</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -881,7 +881,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.450704225352113</v>
+        <v>0.588235294117647</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -892,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
